--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H2">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I2">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J2">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.189874275034824</v>
+        <v>0.194334</v>
       </c>
       <c r="N2">
-        <v>0.189874275034824</v>
+        <v>0.388668</v>
       </c>
       <c r="O2">
-        <v>0.01915716198841131</v>
+        <v>0.01824698727389678</v>
       </c>
       <c r="P2">
-        <v>0.01915716198841131</v>
+        <v>0.01356415537893752</v>
       </c>
       <c r="Q2">
-        <v>7.66390432301793</v>
+        <v>7.870087027824001</v>
       </c>
       <c r="R2">
-        <v>7.66390432301793</v>
+        <v>31.480348111296</v>
       </c>
       <c r="S2">
-        <v>0.008422240987361277</v>
+        <v>0.007916049318155684</v>
       </c>
       <c r="T2">
-        <v>0.008422240987361277</v>
+        <v>0.004813953983361058</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H3">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I3">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J3">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.44063609776599</v>
+        <v>6.987880666666666</v>
       </c>
       <c r="N3">
-        <v>6.44063609776599</v>
+        <v>20.963642</v>
       </c>
       <c r="O3">
-        <v>0.6498210935140267</v>
+        <v>0.6561269237301552</v>
       </c>
       <c r="P3">
-        <v>0.6498210935140267</v>
+        <v>0.7316118059537201</v>
       </c>
       <c r="Q3">
-        <v>259.9636987348662</v>
+        <v>282.9933464381707</v>
       </c>
       <c r="R3">
-        <v>259.9636987348662</v>
+        <v>1697.960078629024</v>
       </c>
       <c r="S3">
-        <v>0.2856868805283631</v>
+        <v>0.2846460628954272</v>
       </c>
       <c r="T3">
-        <v>0.2856868805283631</v>
+        <v>0.2596509306442907</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H4">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I4">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J4">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.258594524586832</v>
+        <v>0.3657773333333333</v>
       </c>
       <c r="N4">
-        <v>0.258594524586832</v>
+        <v>1.097332</v>
       </c>
       <c r="O4">
-        <v>0.0260906180993585</v>
+        <v>0.03434465583178051</v>
       </c>
       <c r="P4">
-        <v>0.0260906180993585</v>
+        <v>0.03829587655860597</v>
       </c>
       <c r="Q4">
-        <v>10.43766299845678</v>
+        <v>14.81315388011734</v>
       </c>
       <c r="R4">
-        <v>10.43766299845678</v>
+        <v>88.878923280704</v>
       </c>
       <c r="S4">
-        <v>0.01147046067026706</v>
+        <v>0.01489966454727499</v>
       </c>
       <c r="T4">
-        <v>0.01147046067026706</v>
+        <v>0.01359130608249086</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H5">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I5">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J5">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.02229404310699</v>
+        <v>3.1022045</v>
       </c>
       <c r="N5">
-        <v>3.02229404310699</v>
+        <v>6.204409</v>
       </c>
       <c r="O5">
-        <v>0.3049311263982035</v>
+        <v>0.2912814331641674</v>
       </c>
       <c r="P5">
-        <v>0.3049311263982035</v>
+        <v>0.2165281621087364</v>
       </c>
       <c r="Q5">
-        <v>121.9889970779394</v>
+        <v>125.632258859012</v>
       </c>
       <c r="R5">
-        <v>121.9889970779394</v>
+        <v>502.529035436048</v>
       </c>
       <c r="S5">
-        <v>0.1340597021952817</v>
+        <v>0.1263659669280954</v>
       </c>
       <c r="T5">
-        <v>0.1340597021952817</v>
+        <v>0.07684640726777403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H6">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I6">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J6">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.189874275034824</v>
+        <v>0.194334</v>
       </c>
       <c r="N6">
-        <v>0.189874275034824</v>
+        <v>0.388668</v>
       </c>
       <c r="O6">
-        <v>0.01915716198841131</v>
+        <v>0.01824698727389678</v>
       </c>
       <c r="P6">
-        <v>0.01915716198841131</v>
+        <v>0.01356415537893752</v>
       </c>
       <c r="Q6">
-        <v>1.138525877660922</v>
+        <v>1.25633789267</v>
       </c>
       <c r="R6">
-        <v>1.138525877660922</v>
+        <v>7.53802735602</v>
       </c>
       <c r="S6">
-        <v>0.001251182022615766</v>
+        <v>0.00126367506273857</v>
       </c>
       <c r="T6">
-        <v>0.001251182022615766</v>
+        <v>0.001152710150755165</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H7">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I7">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J7">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.44063609776599</v>
+        <v>6.987880666666666</v>
       </c>
       <c r="N7">
-        <v>6.44063609776599</v>
+        <v>20.963642</v>
       </c>
       <c r="O7">
-        <v>0.6498210935140267</v>
+        <v>0.6561269237301552</v>
       </c>
       <c r="P7">
-        <v>0.6498210935140267</v>
+        <v>0.7316118059537201</v>
       </c>
       <c r="Q7">
-        <v>38.61940152007826</v>
+        <v>45.17551880262555</v>
       </c>
       <c r="R7">
-        <v>38.61940152007826</v>
+        <v>406.57966922363</v>
       </c>
       <c r="S7">
-        <v>0.04244075769746592</v>
+        <v>0.04543934946977699</v>
       </c>
       <c r="T7">
-        <v>0.04244075769746592</v>
+        <v>0.062173893735006</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H8">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I8">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J8">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.258594524586832</v>
+        <v>0.3657773333333333</v>
       </c>
       <c r="N8">
-        <v>0.258594524586832</v>
+        <v>1.097332</v>
       </c>
       <c r="O8">
-        <v>0.0260906180993585</v>
+        <v>0.03434465583178051</v>
       </c>
       <c r="P8">
-        <v>0.0260906180993585</v>
+        <v>0.03829587655860597</v>
       </c>
       <c r="Q8">
-        <v>1.550586871283823</v>
+        <v>2.364691325997778</v>
       </c>
       <c r="R8">
-        <v>1.550586871283823</v>
+        <v>21.28222193398</v>
       </c>
       <c r="S8">
-        <v>0.001704016093020365</v>
+        <v>0.002378501418425735</v>
       </c>
       <c r="T8">
-        <v>0.001704016093020365</v>
+        <v>0.003254463282669185</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H9">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I9">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J9">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.02229404310699</v>
+        <v>3.1022045</v>
       </c>
       <c r="N9">
-        <v>3.02229404310699</v>
+        <v>6.204409</v>
       </c>
       <c r="O9">
-        <v>0.3049311263982035</v>
+        <v>0.2912814331641674</v>
       </c>
       <c r="P9">
-        <v>0.3049311263982035</v>
+        <v>0.2165281621087364</v>
       </c>
       <c r="Q9">
-        <v>18.12230739180793</v>
+        <v>20.05525056943917</v>
       </c>
       <c r="R9">
-        <v>18.12230739180793</v>
+        <v>120.331503416635</v>
       </c>
       <c r="S9">
-        <v>0.01991549393987494</v>
+        <v>0.02017237573541106</v>
       </c>
       <c r="T9">
-        <v>0.01991549393987494</v>
+        <v>0.01840101380545016</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.759709191841114</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H10">
-        <v>0.759709191841114</v>
+        <v>2.292847</v>
       </c>
       <c r="I10">
-        <v>0.00827484614536732</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J10">
-        <v>0.00827484614536732</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.189874275034824</v>
+        <v>0.194334</v>
       </c>
       <c r="N10">
-        <v>0.189874275034824</v>
+        <v>0.388668</v>
       </c>
       <c r="O10">
-        <v>0.01915716198841131</v>
+        <v>0.01824698727389678</v>
       </c>
       <c r="P10">
-        <v>0.01915716198841131</v>
+        <v>0.01356415537893752</v>
       </c>
       <c r="Q10">
-        <v>0.1442492320381236</v>
+        <v>0.148526042966</v>
       </c>
       <c r="R10">
-        <v>0.1442492320381236</v>
+        <v>0.8911562577960001</v>
       </c>
       <c r="S10">
-        <v>0.0001585225680359827</v>
+        <v>0.0001493934535911284</v>
       </c>
       <c r="T10">
-        <v>0.0001585225680359827</v>
+        <v>0.0001362750247185108</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.759709191841114</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H11">
-        <v>0.759709191841114</v>
+        <v>2.292847</v>
       </c>
       <c r="I11">
-        <v>0.00827484614536732</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J11">
-        <v>0.00827484614536732</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.44063609776599</v>
+        <v>6.987880666666666</v>
       </c>
       <c r="N11">
-        <v>6.44063609776599</v>
+        <v>20.963642</v>
       </c>
       <c r="O11">
-        <v>0.6498210935140267</v>
+        <v>0.6561269237301552</v>
       </c>
       <c r="P11">
-        <v>0.6498210935140267</v>
+        <v>0.7316118059537201</v>
       </c>
       <c r="Q11">
-        <v>4.893010444776507</v>
+        <v>5.340713740974889</v>
       </c>
       <c r="R11">
-        <v>4.893010444776507</v>
+        <v>48.066423668774</v>
       </c>
       <c r="S11">
-        <v>0.005377169570842921</v>
+        <v>0.005371904175676977</v>
       </c>
       <c r="T11">
-        <v>0.005377169570842921</v>
+        <v>0.007350285672450552</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.759709191841114</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H12">
-        <v>0.759709191841114</v>
+        <v>2.292847</v>
       </c>
       <c r="I12">
-        <v>0.00827484614536732</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J12">
-        <v>0.00827484614536732</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.258594524586832</v>
+        <v>0.3657773333333333</v>
       </c>
       <c r="N12">
-        <v>0.258594524586832</v>
+        <v>1.097332</v>
       </c>
       <c r="O12">
-        <v>0.0260906180993585</v>
+        <v>0.03434465583178051</v>
       </c>
       <c r="P12">
-        <v>0.0260906180993585</v>
+        <v>0.03829587655860597</v>
       </c>
       <c r="Q12">
-        <v>0.1964566372883992</v>
+        <v>0.2795571538004445</v>
       </c>
       <c r="R12">
-        <v>0.1964566372883992</v>
+        <v>2.516014384204</v>
       </c>
       <c r="S12">
-        <v>0.0002158958506097275</v>
+        <v>0.0002811898024639025</v>
       </c>
       <c r="T12">
-        <v>0.0002158958506097275</v>
+        <v>0.0003847472532454765</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.759709191841114</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H13">
-        <v>0.759709191841114</v>
+        <v>2.292847</v>
       </c>
       <c r="I13">
-        <v>0.00827484614536732</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J13">
-        <v>0.00827484614536732</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.02229404310699</v>
+        <v>3.1022045</v>
       </c>
       <c r="N13">
-        <v>3.02229404310699</v>
+        <v>6.204409</v>
       </c>
       <c r="O13">
-        <v>0.3049311263982035</v>
+        <v>0.2912814331641674</v>
       </c>
       <c r="P13">
-        <v>0.3049311263982035</v>
+        <v>0.2165281621087364</v>
       </c>
       <c r="Q13">
-        <v>2.296064564995024</v>
+        <v>2.370960093737167</v>
       </c>
       <c r="R13">
-        <v>2.296064564995024</v>
+        <v>14.225760562423</v>
       </c>
       <c r="S13">
-        <v>0.002523258155878689</v>
+        <v>0.002384806796550987</v>
       </c>
       <c r="T13">
-        <v>0.002523258155878689</v>
+        <v>0.00217539388331108</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.533709373801184</v>
+        <v>0.535784</v>
       </c>
       <c r="H14">
-        <v>0.533709373801184</v>
+        <v>1.607352</v>
       </c>
       <c r="I14">
-        <v>0.005813228274680102</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J14">
-        <v>0.005813228274680102</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.189874275034824</v>
+        <v>0.194334</v>
       </c>
       <c r="N14">
-        <v>0.189874275034824</v>
+        <v>0.388668</v>
       </c>
       <c r="O14">
-        <v>0.01915716198841131</v>
+        <v>0.01824698727389678</v>
       </c>
       <c r="P14">
-        <v>0.01915716198841131</v>
+        <v>0.01356415537893752</v>
       </c>
       <c r="Q14">
-        <v>0.1013376804297897</v>
+        <v>0.104121047856</v>
       </c>
       <c r="R14">
-        <v>0.1013376804297897</v>
+        <v>0.6247262871360001</v>
       </c>
       <c r="S14">
-        <v>0.0001113649557336595</v>
+        <v>0.0001047291277684936</v>
       </c>
       <c r="T14">
-        <v>0.0001113649557336595</v>
+        <v>9.553273006500119E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.533709373801184</v>
+        <v>0.535784</v>
       </c>
       <c r="H15">
-        <v>0.533709373801184</v>
+        <v>1.607352</v>
       </c>
       <c r="I15">
-        <v>0.005813228274680102</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J15">
-        <v>0.005813228274680102</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.44063609776599</v>
+        <v>6.987880666666666</v>
       </c>
       <c r="N15">
-        <v>6.44063609776599</v>
+        <v>20.963642</v>
       </c>
       <c r="O15">
-        <v>0.6498210935140267</v>
+        <v>0.6561269237301552</v>
       </c>
       <c r="P15">
-        <v>0.6498210935140267</v>
+        <v>0.7316118059537201</v>
       </c>
       <c r="Q15">
-        <v>3.437427858619988</v>
+        <v>3.743994655109333</v>
       </c>
       <c r="R15">
-        <v>3.437427858619988</v>
+        <v>33.695951895984</v>
       </c>
       <c r="S15">
-        <v>0.003777558354299282</v>
+        <v>0.00376586005109924</v>
       </c>
       <c r="T15">
-        <v>0.003777558354299282</v>
+        <v>0.00515276264669415</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.533709373801184</v>
+        <v>0.535784</v>
       </c>
       <c r="H16">
-        <v>0.533709373801184</v>
+        <v>1.607352</v>
       </c>
       <c r="I16">
-        <v>0.005813228274680102</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J16">
-        <v>0.005813228274680102</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.258594524586832</v>
+        <v>0.3657773333333333</v>
       </c>
       <c r="N16">
-        <v>0.258594524586832</v>
+        <v>1.097332</v>
       </c>
       <c r="O16">
-        <v>0.0260906180993585</v>
+        <v>0.03434465583178051</v>
       </c>
       <c r="P16">
-        <v>0.0260906180993585</v>
+        <v>0.03829587655860597</v>
       </c>
       <c r="Q16">
-        <v>0.138014321785653</v>
+        <v>0.1959776427626667</v>
       </c>
       <c r="R16">
-        <v>0.138014321785653</v>
+        <v>1.763798784864</v>
       </c>
       <c r="S16">
-        <v>0.0001516707188390712</v>
+        <v>0.0001971221766519783</v>
       </c>
       <c r="T16">
-        <v>0.0001516707188390712</v>
+        <v>0.0002697189419959654</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>25</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.533709373801184</v>
+        <v>0.535784</v>
       </c>
       <c r="H17">
-        <v>0.533709373801184</v>
+        <v>1.607352</v>
       </c>
       <c r="I17">
-        <v>0.005813228274680102</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J17">
-        <v>0.005813228274680102</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.02229404310699</v>
+        <v>3.1022045</v>
       </c>
       <c r="N17">
-        <v>3.02229404310699</v>
+        <v>6.204409</v>
       </c>
       <c r="O17">
-        <v>0.3049311263982035</v>
+        <v>0.2912814331641674</v>
       </c>
       <c r="P17">
-        <v>0.3049311263982035</v>
+        <v>0.2165281621087364</v>
       </c>
       <c r="Q17">
-        <v>1.61302666118968</v>
+        <v>1.662111535828</v>
       </c>
       <c r="R17">
-        <v>1.61302666118968</v>
+        <v>9.972669214968001</v>
       </c>
       <c r="S17">
-        <v>0.001772634245808088</v>
+        <v>0.001671818474608128</v>
       </c>
       <c r="T17">
-        <v>0.001772634245808088</v>
+        <v>0.00152501397133251</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.0749538326707</v>
+        <v>33.754358</v>
       </c>
       <c r="H18">
-        <v>33.0749538326707</v>
+        <v>101.263074</v>
       </c>
       <c r="I18">
-        <v>0.3602564733581859</v>
+        <v>0.3615900150766247</v>
       </c>
       <c r="J18">
-        <v>0.3602564733581859</v>
+        <v>0.4437103353361533</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.189874275034824</v>
+        <v>0.194334</v>
       </c>
       <c r="N18">
-        <v>0.189874275034824</v>
+        <v>0.388668</v>
       </c>
       <c r="O18">
-        <v>0.01915716198841131</v>
+        <v>0.01824698727389678</v>
       </c>
       <c r="P18">
-        <v>0.01915716198841131</v>
+        <v>0.01356415537893752</v>
       </c>
       <c r="Q18">
-        <v>6.280082880788624</v>
+        <v>6.559619407572001</v>
       </c>
       <c r="R18">
-        <v>6.280082880788624</v>
+        <v>39.357716445432</v>
       </c>
       <c r="S18">
-        <v>0.006901491617496552</v>
+        <v>0.006597928403471317</v>
       </c>
       <c r="T18">
-        <v>0.006901491617496552</v>
+        <v>0.006018555931740054</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.0749538326707</v>
+        <v>33.754358</v>
       </c>
       <c r="H19">
-        <v>33.0749538326707</v>
+        <v>101.263074</v>
       </c>
       <c r="I19">
-        <v>0.3602564733581859</v>
+        <v>0.3615900150766247</v>
       </c>
       <c r="J19">
-        <v>0.3602564733581859</v>
+        <v>0.4437103353361533</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.44063609776599</v>
+        <v>6.987880666666666</v>
       </c>
       <c r="N19">
-        <v>6.44063609776599</v>
+        <v>20.963642</v>
       </c>
       <c r="O19">
-        <v>0.6498210935140267</v>
+        <v>0.6561269237301552</v>
       </c>
       <c r="P19">
-        <v>0.6498210935140267</v>
+        <v>0.7316118059537201</v>
       </c>
       <c r="Q19">
-        <v>213.0237415866425</v>
+        <v>235.8714256839453</v>
       </c>
       <c r="R19">
-        <v>213.0237415866425</v>
+        <v>2122.842831155508</v>
       </c>
       <c r="S19">
-        <v>0.2341022554631232</v>
+        <v>0.2372489442437662</v>
       </c>
       <c r="T19">
-        <v>0.2341022554631232</v>
+        <v>0.3246237197556139</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.0749538326707</v>
+        <v>33.754358</v>
       </c>
       <c r="H20">
-        <v>33.0749538326707</v>
+        <v>101.263074</v>
       </c>
       <c r="I20">
-        <v>0.3602564733581859</v>
+        <v>0.3615900150766247</v>
       </c>
       <c r="J20">
-        <v>0.3602564733581859</v>
+        <v>0.4437103353361533</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.258594524586832</v>
+        <v>0.3657773333333333</v>
       </c>
       <c r="N20">
-        <v>0.258594524586832</v>
+        <v>1.097332</v>
       </c>
       <c r="O20">
-        <v>0.0260906180993585</v>
+        <v>0.03434465583178051</v>
       </c>
       <c r="P20">
-        <v>0.0260906180993585</v>
+        <v>0.03829587655860597</v>
       </c>
       <c r="Q20">
-        <v>8.553001962090898</v>
+        <v>12.34657905761867</v>
       </c>
       <c r="R20">
-        <v>8.553001962090898</v>
+        <v>111.119211518568</v>
       </c>
       <c r="S20">
-        <v>0.009399314064210148</v>
+        <v>0.012418684620015</v>
       </c>
       <c r="T20">
-        <v>0.009399314064210148</v>
+        <v>0.01699227622981099</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.0749538326707</v>
+        <v>33.754358</v>
       </c>
       <c r="H21">
-        <v>33.0749538326707</v>
+        <v>101.263074</v>
       </c>
       <c r="I21">
-        <v>0.3602564733581859</v>
+        <v>0.3615900150766247</v>
       </c>
       <c r="J21">
-        <v>0.3602564733581859</v>
+        <v>0.4437103353361533</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.02229404310699</v>
+        <v>3.1022045</v>
       </c>
       <c r="N21">
-        <v>3.02229404310699</v>
+        <v>6.204409</v>
       </c>
       <c r="O21">
-        <v>0.3049311263982035</v>
+        <v>0.2912814331641674</v>
       </c>
       <c r="P21">
-        <v>0.3049311263982035</v>
+        <v>0.2165281621087364</v>
       </c>
       <c r="Q21">
-        <v>99.96223594451936</v>
+        <v>104.712921282211</v>
       </c>
       <c r="R21">
-        <v>99.96223594451936</v>
+        <v>628.2775276932661</v>
       </c>
       <c r="S21">
-        <v>0.109853412213356</v>
+        <v>0.1053244578093722</v>
       </c>
       <c r="T21">
-        <v>0.109853412213356</v>
+        <v>0.09607578341898838</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.0818355071188</v>
+        <v>11.332808</v>
       </c>
       <c r="H22">
-        <v>11.0818355071188</v>
+        <v>22.665616</v>
       </c>
       <c r="I22">
-        <v>0.1207047180875166</v>
+        <v>0.1214015154896589</v>
       </c>
       <c r="J22">
-        <v>0.1207047180875166</v>
+        <v>0.09931525558823626</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.189874275034824</v>
+        <v>0.194334</v>
       </c>
       <c r="N22">
-        <v>0.189874275034824</v>
+        <v>0.388668</v>
       </c>
       <c r="O22">
-        <v>0.01915716198841131</v>
+        <v>0.01824698727389678</v>
       </c>
       <c r="P22">
-        <v>0.01915716198841131</v>
+        <v>0.01356415537893752</v>
       </c>
       <c r="Q22">
-        <v>2.104155482969353</v>
+        <v>2.202349909872</v>
       </c>
       <c r="R22">
-        <v>2.104155482969353</v>
+        <v>8.809399639487999</v>
       </c>
       <c r="S22">
-        <v>0.002312359837168076</v>
+        <v>0.002215211908171589</v>
       </c>
       <c r="T22">
-        <v>0.002312359837168076</v>
+        <v>0.001347127558297729</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.0818355071188</v>
+        <v>11.332808</v>
       </c>
       <c r="H23">
-        <v>11.0818355071188</v>
+        <v>22.665616</v>
       </c>
       <c r="I23">
-        <v>0.1207047180875166</v>
+        <v>0.1214015154896589</v>
       </c>
       <c r="J23">
-        <v>0.1207047180875166</v>
+        <v>0.09931525558823626</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.44063609776599</v>
+        <v>6.987880666666666</v>
       </c>
       <c r="N23">
-        <v>6.44063609776599</v>
+        <v>20.963642</v>
       </c>
       <c r="O23">
-        <v>0.6498210935140267</v>
+        <v>0.6561269237301552</v>
       </c>
       <c r="P23">
-        <v>0.6498210935140267</v>
+        <v>0.7316118059537201</v>
       </c>
       <c r="Q23">
-        <v>71.37406979665423</v>
+        <v>79.19230992224533</v>
       </c>
       <c r="R23">
-        <v>71.37406979665423</v>
+        <v>475.153859533472</v>
       </c>
       <c r="S23">
-        <v>0.07843647189993233</v>
+        <v>0.07965480289440871</v>
       </c>
       <c r="T23">
-        <v>0.07843647189993233</v>
+        <v>0.07266021349966482</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.0818355071188</v>
+        <v>11.332808</v>
       </c>
       <c r="H24">
-        <v>11.0818355071188</v>
+        <v>22.665616</v>
       </c>
       <c r="I24">
-        <v>0.1207047180875166</v>
+        <v>0.1214015154896589</v>
       </c>
       <c r="J24">
-        <v>0.1207047180875166</v>
+        <v>0.09931525558823626</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.258594524586832</v>
+        <v>0.3657773333333333</v>
       </c>
       <c r="N24">
-        <v>0.258594524586832</v>
+        <v>1.097332</v>
       </c>
       <c r="O24">
-        <v>0.0260906180993585</v>
+        <v>0.03434465583178051</v>
       </c>
       <c r="P24">
-        <v>0.0260906180993585</v>
+        <v>0.03829587655860597</v>
       </c>
       <c r="Q24">
-        <v>2.865701984512861</v>
+        <v>4.145284289418667</v>
       </c>
       <c r="R24">
-        <v>2.865701984512861</v>
+        <v>24.871705736512</v>
       </c>
       <c r="S24">
-        <v>0.003149260702412125</v>
+        <v>0.004169493266948906</v>
       </c>
       <c r="T24">
-        <v>0.003149260702412125</v>
+        <v>0.003803364768393497</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.0818355071188</v>
+        <v>11.332808</v>
       </c>
       <c r="H25">
-        <v>11.0818355071188</v>
+        <v>22.665616</v>
       </c>
       <c r="I25">
-        <v>0.1207047180875166</v>
+        <v>0.1214015154896589</v>
       </c>
       <c r="J25">
-        <v>0.1207047180875166</v>
+        <v>0.09931525558823626</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.02229404310699</v>
+        <v>3.1022045</v>
       </c>
       <c r="N25">
-        <v>3.02229404310699</v>
+        <v>6.204409</v>
       </c>
       <c r="O25">
-        <v>0.3049311263982035</v>
+        <v>0.2912814331641674</v>
       </c>
       <c r="P25">
-        <v>0.3049311263982035</v>
+        <v>0.2165281621087364</v>
       </c>
       <c r="Q25">
-        <v>33.49256543985668</v>
+        <v>35.156687975236</v>
       </c>
       <c r="R25">
-        <v>33.49256543985668</v>
+        <v>140.626751900944</v>
       </c>
       <c r="S25">
-        <v>0.03680662564800403</v>
+        <v>0.03536200742012973</v>
       </c>
       <c r="T25">
-        <v>0.03680662564800403</v>
+        <v>0.02150454976188021</v>
       </c>
     </row>
   </sheetData>
